--- a/Section 2/Segmentation, Targeting and Positioning Analysis/Segementation, Targeting and Positioning Analysis.xlsx
+++ b/Section 2/Segmentation, Targeting and Positioning Analysis/Segementation, Targeting and Positioning Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONKAMS\Downloads\nestle-international-marketing-analysis\Section 2\Segmentation, Targeting and Positioning Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3361B248-F5D0-4402-BE31-52C9BB1A60C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C82B8B-B38C-4110-87A7-DB7A73C3598A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
